--- a/natmiOut/OldD7/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.638978499366</v>
+        <v>24.50527833333333</v>
       </c>
       <c r="H2">
-        <v>23.638978499366</v>
+        <v>73.515835</v>
       </c>
       <c r="I2">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="J2">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.07839309397694</v>
+        <v>1.383699</v>
       </c>
       <c r="N2">
-        <v>1.07839309397694</v>
+        <v>4.151097</v>
       </c>
       <c r="O2">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="P2">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="Q2">
-        <v>25.49211116238566</v>
+        <v>33.907929124555</v>
       </c>
       <c r="R2">
-        <v>25.49211116238566</v>
+        <v>305.171362120995</v>
       </c>
       <c r="S2">
-        <v>0.005238865924828646</v>
+        <v>0.00391671225514798</v>
       </c>
       <c r="T2">
-        <v>0.005238865924828646</v>
+        <v>0.00391671225514798</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.638978499366</v>
+        <v>24.50527833333333</v>
       </c>
       <c r="H3">
-        <v>23.638978499366</v>
+        <v>73.515835</v>
       </c>
       <c r="I3">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="J3">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.43457494650491</v>
+        <v>2.462094</v>
       </c>
       <c r="N3">
-        <v>2.43457494650491</v>
+        <v>7.386282</v>
       </c>
       <c r="O3">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="P3">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="Q3">
-        <v>57.5508648155247</v>
+        <v>60.33429875283</v>
       </c>
       <c r="R3">
-        <v>57.5508648155247</v>
+        <v>543.00868877547</v>
       </c>
       <c r="S3">
-        <v>0.01182723795239626</v>
+        <v>0.006969227948510703</v>
       </c>
       <c r="T3">
-        <v>0.01182723795239626</v>
+        <v>0.006969227948510704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.638978499366</v>
+        <v>24.50527833333333</v>
       </c>
       <c r="H4">
-        <v>23.638978499366</v>
+        <v>73.515835</v>
       </c>
       <c r="I4">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="J4">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.62421775191397</v>
+        <v>4.336036333333333</v>
       </c>
       <c r="N4">
-        <v>3.62421775191397</v>
+        <v>13.008109</v>
       </c>
       <c r="O4">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="P4">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="Q4">
-        <v>85.67280551451492</v>
+        <v>106.2557772117794</v>
       </c>
       <c r="R4">
-        <v>85.67280551451492</v>
+        <v>956.301994906015</v>
       </c>
       <c r="S4">
-        <v>0.01760655830485797</v>
+        <v>0.01227362789561428</v>
       </c>
       <c r="T4">
-        <v>0.01760655830485797</v>
+        <v>0.01227362789561428</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.638978499366</v>
+        <v>24.50527833333333</v>
       </c>
       <c r="H5">
-        <v>23.638978499366</v>
+        <v>73.515835</v>
       </c>
       <c r="I5">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="J5">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.16483496370046</v>
+        <v>8.941088000000001</v>
       </c>
       <c r="N5">
-        <v>4.16483496370046</v>
+        <v>26.823264</v>
       </c>
       <c r="O5">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="P5">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="Q5">
-        <v>98.45244416032295</v>
+        <v>219.1038500428267</v>
       </c>
       <c r="R5">
-        <v>98.45244416032295</v>
+        <v>1971.93465038544</v>
       </c>
       <c r="S5">
-        <v>0.02023289289937891</v>
+        <v>0.02530873328950628</v>
       </c>
       <c r="T5">
-        <v>0.02023289289937891</v>
+        <v>0.02530873328950628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>110.094156537472</v>
+        <v>110.1980973333333</v>
       </c>
       <c r="H6">
-        <v>110.094156537472</v>
+        <v>330.594292</v>
       </c>
       <c r="I6">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="J6">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.07839309397694</v>
+        <v>1.383699</v>
       </c>
       <c r="N6">
-        <v>1.07839309397694</v>
+        <v>4.151097</v>
       </c>
       <c r="O6">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="P6">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="Q6">
-        <v>118.724778097226</v>
+        <v>152.480997082036</v>
       </c>
       <c r="R6">
-        <v>118.724778097226</v>
+        <v>1372.328973738324</v>
       </c>
       <c r="S6">
-        <v>0.02439904605955718</v>
+        <v>0.01761311307908521</v>
       </c>
       <c r="T6">
-        <v>0.02439904605955718</v>
+        <v>0.01761311307908521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>110.094156537472</v>
+        <v>110.1980973333333</v>
       </c>
       <c r="H7">
-        <v>110.094156537472</v>
+        <v>330.594292</v>
       </c>
       <c r="I7">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="J7">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.43457494650491</v>
+        <v>2.462094</v>
       </c>
       <c r="N7">
-        <v>2.43457494650491</v>
+        <v>7.386282</v>
       </c>
       <c r="O7">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="P7">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="Q7">
-        <v>268.0324752627191</v>
+        <v>271.318074255816</v>
       </c>
       <c r="R7">
-        <v>268.0324752627191</v>
+        <v>2441.862668302344</v>
       </c>
       <c r="S7">
-        <v>0.05508316641397878</v>
+        <v>0.03134000966491788</v>
       </c>
       <c r="T7">
-        <v>0.05508316641397878</v>
+        <v>0.03134000966491789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>110.094156537472</v>
+        <v>110.1980973333333</v>
       </c>
       <c r="H8">
-        <v>110.094156537472</v>
+        <v>330.594292</v>
       </c>
       <c r="I8">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="J8">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.62421775191397</v>
+        <v>4.336036333333333</v>
       </c>
       <c r="N8">
-        <v>3.62421775191397</v>
+        <v>13.008109</v>
       </c>
       <c r="O8">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="P8">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="Q8">
-        <v>399.0051965051015</v>
+        <v>477.8229539015364</v>
       </c>
       <c r="R8">
-        <v>399.0051965051015</v>
+        <v>4300.406585113828</v>
       </c>
       <c r="S8">
-        <v>0.08199927869781465</v>
+        <v>0.05519343314841017</v>
       </c>
       <c r="T8">
-        <v>0.08199927869781465</v>
+        <v>0.05519343314841017</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>110.094156537472</v>
+        <v>110.1980973333333</v>
       </c>
       <c r="H9">
-        <v>110.094156537472</v>
+        <v>330.594292</v>
       </c>
       <c r="I9">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="J9">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.16483496370046</v>
+        <v>8.941088000000001</v>
       </c>
       <c r="N9">
-        <v>4.16483496370046</v>
+        <v>26.823264</v>
       </c>
       <c r="O9">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="P9">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="Q9">
-        <v>458.523992446375</v>
+        <v>985.2908856898988</v>
       </c>
       <c r="R9">
-        <v>458.523992446375</v>
+        <v>8867.617971209089</v>
       </c>
       <c r="S9">
-        <v>0.09423094479864561</v>
+        <v>0.1138111641289412</v>
       </c>
       <c r="T9">
-        <v>0.09423094479864561</v>
+        <v>0.1138111641289412</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>282.430184291113</v>
+        <v>351.7202226666666</v>
       </c>
       <c r="H10">
-        <v>282.430184291113</v>
+        <v>1055.160668</v>
       </c>
       <c r="I10">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665283</v>
       </c>
       <c r="J10">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665284</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.07839309397694</v>
+        <v>1.383699</v>
       </c>
       <c r="N10">
-        <v>1.07839309397694</v>
+        <v>4.151097</v>
       </c>
       <c r="O10">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="P10">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="Q10">
-        <v>304.5707602701707</v>
+        <v>486.674920383644</v>
       </c>
       <c r="R10">
-        <v>304.5707602701707</v>
+        <v>4380.074283452796</v>
       </c>
       <c r="S10">
-        <v>0.06259212379525916</v>
+        <v>0.05621592571866631</v>
       </c>
       <c r="T10">
-        <v>0.06259212379525916</v>
+        <v>0.05621592571866632</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>282.430184291113</v>
+        <v>351.7202226666666</v>
       </c>
       <c r="H11">
-        <v>282.430184291113</v>
+        <v>1055.160668</v>
       </c>
       <c r="I11">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665283</v>
       </c>
       <c r="J11">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665284</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.43457494650491</v>
+        <v>2.462094</v>
       </c>
       <c r="N11">
-        <v>2.43457494650491</v>
+        <v>7.386282</v>
       </c>
       <c r="O11">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="P11">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="Q11">
-        <v>687.5974508119083</v>
+        <v>865.968249906264</v>
       </c>
       <c r="R11">
-        <v>687.5974508119083</v>
+        <v>7793.714249156376</v>
       </c>
       <c r="S11">
-        <v>0.1413076709147864</v>
+        <v>0.1000281805626614</v>
       </c>
       <c r="T11">
-        <v>0.1413076709147864</v>
+        <v>0.1000281805626614</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>282.430184291113</v>
+        <v>351.7202226666666</v>
       </c>
       <c r="H12">
-        <v>282.430184291113</v>
+        <v>1055.160668</v>
       </c>
       <c r="I12">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665283</v>
       </c>
       <c r="J12">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665284</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.62421775191397</v>
+        <v>4.336036333333333</v>
       </c>
       <c r="N12">
-        <v>3.62421775191397</v>
+        <v>13.008109</v>
       </c>
       <c r="O12">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="P12">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="Q12">
-        <v>1023.588487584186</v>
+        <v>1525.071664650757</v>
       </c>
       <c r="R12">
-        <v>1023.588487584186</v>
+        <v>13725.64498185681</v>
       </c>
       <c r="S12">
-        <v>0.2103569537451303</v>
+        <v>0.1761613591020192</v>
       </c>
       <c r="T12">
-        <v>0.2103569537451303</v>
+        <v>0.1761613591020193</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>282.430184291113</v>
+        <v>351.7202226666666</v>
       </c>
       <c r="H13">
-        <v>282.430184291113</v>
+        <v>1055.160668</v>
       </c>
       <c r="I13">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665283</v>
       </c>
       <c r="J13">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665284</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.16483496370046</v>
+        <v>8.941088000000001</v>
       </c>
       <c r="N13">
-        <v>4.16483496370046</v>
+        <v>26.823264</v>
       </c>
       <c r="O13">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="P13">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="Q13">
-        <v>1176.275106339992</v>
+        <v>3144.761462242261</v>
       </c>
       <c r="R13">
-        <v>1176.275106339992</v>
+        <v>28302.85316018036</v>
       </c>
       <c r="S13">
-        <v>0.2417354739109052</v>
+        <v>0.3632520792831814</v>
       </c>
       <c r="T13">
-        <v>0.2417354739109052</v>
+        <v>0.3632520792831814</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.3756027227145</v>
+        <v>19.17031833333333</v>
       </c>
       <c r="H14">
-        <v>14.3756027227145</v>
+        <v>57.510955</v>
       </c>
       <c r="I14">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="J14">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.07839309397694</v>
+        <v>1.383699</v>
       </c>
       <c r="N14">
-        <v>1.07839309397694</v>
+        <v>4.151097</v>
       </c>
       <c r="O14">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="P14">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="Q14">
-        <v>15.50255069793141</v>
+        <v>26.525950307515</v>
       </c>
       <c r="R14">
-        <v>15.50255069793141</v>
+        <v>238.733552767635</v>
       </c>
       <c r="S14">
-        <v>0.00318591834477631</v>
+        <v>0.003064018279242343</v>
       </c>
       <c r="T14">
-        <v>0.00318591834477631</v>
+        <v>0.003064018279242343</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.3756027227145</v>
+        <v>19.17031833333333</v>
       </c>
       <c r="H15">
-        <v>14.3756027227145</v>
+        <v>57.510955</v>
       </c>
       <c r="I15">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="J15">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.43457494650491</v>
+        <v>2.462094</v>
       </c>
       <c r="N15">
-        <v>2.43457494650491</v>
+        <v>7.386282</v>
       </c>
       <c r="O15">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="P15">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="Q15">
-        <v>34.99848222962849</v>
+        <v>47.19912574659</v>
       </c>
       <c r="R15">
-        <v>34.99848222962849</v>
+        <v>424.79213171931</v>
       </c>
       <c r="S15">
-        <v>0.007192513590010671</v>
+        <v>0.005451981262697232</v>
       </c>
       <c r="T15">
-        <v>0.007192513590010671</v>
+        <v>0.005451981262697233</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.3756027227145</v>
+        <v>19.17031833333333</v>
       </c>
       <c r="H16">
-        <v>14.3756027227145</v>
+        <v>57.510955</v>
       </c>
       <c r="I16">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="J16">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.62421775191397</v>
+        <v>4.336036333333333</v>
       </c>
       <c r="N16">
-        <v>3.62421775191397</v>
+        <v>13.008109</v>
       </c>
       <c r="O16">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="P16">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="Q16">
-        <v>52.1003145821247</v>
+        <v>83.12319681489944</v>
       </c>
       <c r="R16">
-        <v>52.1003145821247</v>
+        <v>748.1087713340951</v>
       </c>
       <c r="S16">
-        <v>0.01070709918839074</v>
+        <v>0.009601578511505955</v>
       </c>
       <c r="T16">
-        <v>0.01070709918839074</v>
+        <v>0.009601578511505955</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.3756027227145</v>
+        <v>19.17031833333333</v>
       </c>
       <c r="H17">
-        <v>14.3756027227145</v>
+        <v>57.510955</v>
       </c>
       <c r="I17">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="J17">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.16483496370046</v>
+        <v>8.941088000000001</v>
       </c>
       <c r="N17">
-        <v>4.16483496370046</v>
+        <v>26.823264</v>
       </c>
       <c r="O17">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="P17">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="Q17">
-        <v>59.87201284382888</v>
+        <v>171.4035032063467</v>
       </c>
       <c r="R17">
-        <v>59.87201284382888</v>
+        <v>1542.63152885712</v>
       </c>
       <c r="S17">
-        <v>0.01230425545928321</v>
+        <v>0.01979885586989249</v>
       </c>
       <c r="T17">
-        <v>0.01230425545928321</v>
+        <v>0.01979885586989249</v>
       </c>
     </row>
   </sheetData>
